--- a/assets/xlsx/Course Plan.xlsx
+++ b/assets/xlsx/Course Plan.xlsx
@@ -5,23 +5,142 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Documents\University\BCom + BEcon\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Danilo\Documents\University\BCom + BEcon\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="12840" windowHeight="7752"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="12840" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="BCommBEcon" sheetId="1" r:id="rId1"/>
-    <sheet name="BCommBEcon Information Systems " sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="Business Law Major" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Specific WAM" sheetId="7" r:id="rId2"/>
+    <sheet name="BCommBEcon Information Systems " sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Business Law Major" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Danilo Scodellaro</author>
+  </authors>
+  <commentList>
+    <comment ref="L24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danilo Scodellaro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimated Mark: 75
+Current give: View marks do not match with course outline.
+Conservative estimate of 75 taken (should be higher though)
+Total = 75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danilo Scodellaro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimated Mark: 62
+Assignment 11/20
+Midsem Exam 13.8/20
+TOTAL 24.8/40 = 62%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danilo Scodellaro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimated Mark: 91
+Grade to date ~99%
+Based on COMP1911
+Final score of 91</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Danilo Scodellaro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimated Mark: 78
+Individual Assignment 85% of 30 = 25.5
+Group Assignment 73% of 40 = 29.2
+Running Grade = 54.7/70 = 78.14</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="135">
   <si>
     <t>Course</t>
   </si>
@@ -377,12 +496,6 @@
     <t>WINTER</t>
   </si>
   <si>
-    <t>INFS2605</t>
-  </si>
-  <si>
-    <t>Business Application Programming</t>
-  </si>
-  <si>
     <t>Offered During?</t>
   </si>
   <si>
@@ -411,6 +524,27 @@
   </si>
   <si>
     <t>Upcoming Subjects</t>
+  </si>
+  <si>
+    <t>MGMT2102</t>
+  </si>
+  <si>
+    <t>Managing Across Cultures</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>ASB</t>
+  </si>
+  <si>
+    <t>General Education</t>
+  </si>
+  <si>
+    <t>AVERAGE WAM</t>
   </si>
 </sst>
 </file>
@@ -420,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,13 +617,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -510,6 +637,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -700,7 +848,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -726,114 +874,65 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,6 +960,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1167,1338 +1316,1333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:XFC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L28:L35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="10" hidden="1"/>
+    <col min="15" max="15" width="0" style="10" hidden="1"/>
+    <col min="16" max="16383" width="9.140625" style="10" hidden="1"/>
+    <col min="16384" max="16384" width="12.28515625" style="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="22">
+        <v>6</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24">
+        <v>79</v>
+      </c>
+      <c r="M2" s="23" t="str">
+        <f t="shared" ref="M2:M30" si="0">IF(L2&gt;=85,"HD",IF(L2&gt;=75,"DN",IF(L2&gt;=65,"CR",IF(L2&gt;=50,"PS",""))))</f>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="23">
+        <v>6</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="25">
+        <v>83</v>
+      </c>
+      <c r="M3" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="23">
+        <v>6</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="25">
+        <v>66</v>
+      </c>
+      <c r="M4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="23">
+        <v>6</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="25">
+        <v>69</v>
+      </c>
+      <c r="M5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="38">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="23">
+        <v>6</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25">
+        <v>58</v>
+      </c>
+      <c r="M6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="23">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="25">
+        <v>75</v>
+      </c>
+      <c r="M7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="23">
+        <v>6</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="25">
+        <v>85</v>
+      </c>
+      <c r="M8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="25">
+        <v>83</v>
+      </c>
+      <c r="M9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="23">
+        <v>6</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="25">
+        <v>88</v>
+      </c>
+      <c r="M10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>2</v>
+      </c>
+      <c r="B11" s="47">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="23">
+        <v>6</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="25">
+        <v>69</v>
+      </c>
+      <c r="M11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="23">
+        <v>6</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="25">
+        <v>76</v>
+      </c>
+      <c r="M12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="23">
+        <v>6</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="25">
+        <v>76</v>
+      </c>
+      <c r="M13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="23">
+        <v>6</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="25">
+        <v>66</v>
+      </c>
+      <c r="M14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="47">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="23">
+        <v>6</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="25">
+        <v>82</v>
+      </c>
+      <c r="M15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="23">
+        <v>6</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="25">
+        <v>75</v>
+      </c>
+      <c r="M16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="23">
+        <v>6</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="25">
+        <v>79</v>
+      </c>
+      <c r="M17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="23">
+        <v>6</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="25">
+        <v>71</v>
+      </c>
+      <c r="M18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="23">
+        <v>6</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="25">
+        <v>78</v>
+      </c>
+      <c r="M19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
+        <v>3</v>
+      </c>
+      <c r="B20" s="47">
+        <v>1</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="23">
+        <v>6</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="25">
+        <v>79</v>
+      </c>
+      <c r="M20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="23">
+        <v>6</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="25">
+        <v>91</v>
+      </c>
+      <c r="M21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="23">
+        <v>6</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="25">
+        <v>77</v>
+      </c>
+      <c r="M22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="70"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="L23" s="25">
+        <v>76</v>
+      </c>
+      <c r="M23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
+      <c r="B24" s="69">
+        <v>2</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="15">
+        <v>6</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="72">
+        <v>79</v>
+      </c>
+      <c r="M24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="15">
+        <v>6</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="72">
+        <v>75</v>
+      </c>
+      <c r="M25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="15">
+        <v>6</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="72">
+        <v>94</v>
+      </c>
+      <c r="M26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="15">
+        <v>6</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="72">
+        <v>77</v>
+      </c>
+      <c r="M27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73">
+        <v>4</v>
+      </c>
+      <c r="B28" s="73">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F28" s="17">
+        <v>6</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="17">
+        <v>6</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="17">
+        <v>6</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="29">
+        <v>6</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="29" t="str">
+        <f t="shared" ref="M32:M38" si="1">IF(L32&gt;=85,"HD",IF(L32&gt;=75,"DN",IF(L32&gt;=65,"CR",IF(L32&gt;=50,"PS",""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
+      <c r="B33" s="44">
+        <v>2</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="29">
+        <v>6</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="29">
+        <v>6</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G39" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H39" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J39" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K39" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35">
-        <v>1</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="37" t="s">
+      <c r="L39" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34">
+        <f>192-SUM(F2:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="34">
+        <f>60-6*COUNTA(G2:G38)</f>
+        <v>-6</v>
+      </c>
+      <c r="H40" s="34">
+        <f>48-6*COUNTA(H2:H38)</f>
+        <v>-6</v>
+      </c>
+      <c r="I40" s="34">
+        <f>84-6*COUNTA(I2:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="34">
+        <f>96-6*COUNTA(J2:J38)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="34">
+        <f>12-6*COUNTA(K2:K38)</f>
+        <v>-6</v>
+      </c>
+      <c r="L40" s="35">
+        <f>AVERAGE(L2:L38)</f>
+        <v>77.15384615384616</v>
+      </c>
+      <c r="M40" s="34" t="str">
+        <f>IF(L40&gt;=85,"HD",IF(L40&gt;=75,"DN",IF(L40&gt;=65,"CR",IF(L40&gt;=50,"PS",""))))</f>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="36">
-        <v>6</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="38">
-        <v>79</v>
-      </c>
-      <c r="M2" s="37" t="str">
-        <f>IF(L2&gt;=85,"HD",IF(L2&gt;=75,"DN",IF(L2&gt;=65,"CR",IF(L2&gt;=50,"PS",""))))</f>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="37">
-        <v>6</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="41">
-        <v>83</v>
-      </c>
-      <c r="M3" s="37" t="str">
-        <f t="shared" ref="M3:M42" si="0">IF(L3&gt;=85,"HD",IF(L3&gt;=75,"DN",IF(L3&gt;=65,"CR",IF(L3&gt;=50,"PS",""))))</f>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="37">
-        <v>6</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="41">
-        <v>66</v>
-      </c>
-      <c r="M4" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="37">
-        <v>6</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="41">
-        <v>69</v>
-      </c>
-      <c r="M5" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40">
-        <v>2</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="37">
-        <v>6</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="41">
-        <v>58</v>
-      </c>
-      <c r="M6" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>PS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="37">
-        <v>6</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="41">
-        <v>75</v>
-      </c>
-      <c r="M7" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="37">
-        <v>6</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="41">
-        <v>85</v>
-      </c>
-      <c r="M8" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>HD</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="37">
-        <v>6</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="41">
-        <v>83</v>
-      </c>
-      <c r="M9" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="37">
-        <v>6</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="41">
-        <v>88</v>
-      </c>
-      <c r="M10" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>HD</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
-        <v>2</v>
-      </c>
-      <c r="B11" s="43">
-        <v>1</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="37">
-        <v>6</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="41">
-        <v>69</v>
-      </c>
-      <c r="M11" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="37">
-        <v>6</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="41">
-        <v>76</v>
-      </c>
-      <c r="M12" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="37">
-        <v>6</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="41">
-        <v>76</v>
-      </c>
-      <c r="M13" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="37">
-        <v>6</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="41">
-        <v>66</v>
-      </c>
-      <c r="M14" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="43">
-        <v>2</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="37">
-        <v>6</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="41">
-        <v>82</v>
-      </c>
-      <c r="M15" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="37">
-        <v>6</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="41">
-        <v>75</v>
-      </c>
-      <c r="M16" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="37">
-        <v>6</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="41">
-        <v>79</v>
-      </c>
-      <c r="M17" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="37">
-        <v>6</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="41">
-        <v>71</v>
-      </c>
-      <c r="M18" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="37">
-        <v>6</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="41">
-        <v>78</v>
-      </c>
-      <c r="M19" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
-        <v>3</v>
-      </c>
-      <c r="B20" s="43">
-        <v>1</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="37">
-        <v>6</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="41">
-        <v>79</v>
-      </c>
-      <c r="M20" s="37" t="str">
-        <f>IF(L20&gt;=85,"HD",IF(L20&gt;=75,"DN",IF(L20&gt;=65,"CR",IF(L20&gt;=50,"PS",""))))</f>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="37">
-        <v>6</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="41">
-        <v>91</v>
-      </c>
-      <c r="M21" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>HD</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="37">
-        <v>6</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="41">
-        <v>77</v>
-      </c>
-      <c r="M22" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="37">
-        <v>6</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="41">
-        <v>76</v>
-      </c>
-      <c r="M23" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="45">
-        <v>2</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="48">
-        <v>6</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="48">
-        <v>6</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="48" t="str">
-        <f>IF(L25&gt;=85,"HD",IF(L25&gt;=75,"DN",IF(L25&gt;=65,"CR",IF(L25&gt;=50,"PS",""))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="48">
-        <v>6</v>
-      </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="48">
-        <v>6</v>
-      </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="54">
-        <v>4</v>
-      </c>
-      <c r="B29" s="54">
-        <v>1</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="52">
-        <v>6</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="52">
-        <v>6</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="52">
-        <v>6</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="52"/>
-    </row>
-    <row r="33" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="52">
-        <v>6</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="54">
-        <v>2</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="52">
-        <v>6</v>
-      </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="52">
-        <v>6</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="52">
-        <v>0</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="8" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="M40" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63">
-        <f>192-SUM(F2:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="63">
-        <f>60-6*COUNTA(G2:G39)</f>
-        <v>-6</v>
-      </c>
-      <c r="H41" s="63">
-        <f>48-6*COUNTA(H2:H39)</f>
-        <v>-12</v>
-      </c>
-      <c r="I41" s="63">
-        <f>84-6*COUNTA(I2:I39)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="63">
-        <f>96-6*COUNTA(J2:J39)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="63">
-        <f>12-6*COUNTA(K2:K39)</f>
-        <v>-6</v>
-      </c>
-      <c r="L41" s="64">
-        <f>AVERAGE(L2:L39)</f>
-        <v>76.409090909090907</v>
-      </c>
-      <c r="M41" s="63" t="str">
-        <f>IF(L41&gt;=85,"HD",IF(L41&gt;=75,"DN",IF(L41&gt;=65,"CR",IF(L41&gt;=50,"PS",""))))</f>
-        <v>DN</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="65" t="s">
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="72"/>
-      <c r="M42" s="73"/>
-    </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.3"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="56"/>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A28:A36"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <webPublishItems count="1">
     <webPublishItem id="16431" divId="Course Plan_16431" sourceType="sheet" destinationFile="C:\Users\Danilo\Documents\University\BCom + BEcon\Miscellaneous\Course Plan.htm"/>
   </webPublishItems>
@@ -2507,28 +2651,947 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEX55"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="10" hidden="1"/>
+    <col min="11" max="16378" width="9.140625" style="10" hidden="1"/>
+    <col min="16379" max="16379" width="12.28515625" style="10" hidden="1" customWidth="1"/>
+    <col min="16380" max="16384" width="12.28515625" style="10" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <f>G2</f>
+        <v>79</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2">
+        <v>79</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H30" si="0">IF(G2&gt;=85,"HD",IF(G2&gt;=75,"DN",IF(G2&gt;=65,"CR",IF(G2&gt;=50,"PS",""))))</f>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <f>G3</f>
+        <v>83</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3">
+        <v>83</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4">
+        <f t="shared" ref="E4:E27" si="1">G4</f>
+        <v>66</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>69</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f>G6</f>
+        <v>58</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6">
+        <v>58</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>PS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>75</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>85</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>83</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f>G10</f>
+        <v>88</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10">
+        <v>88</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <f>G11</f>
+        <v>69</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11">
+        <v>69</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <f>G12</f>
+        <v>76</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12">
+        <v>76</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13">
+        <f t="shared" ref="D13:D27" si="2">G13</f>
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13">
+        <v>76</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14">
+        <f>G14</f>
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14">
+        <v>66</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <f>G15</f>
+        <v>82</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15">
+        <v>82</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17">
+        <v>79</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <f>G18</f>
+        <v>71</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <f>G19</f>
+        <v>78</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19">
+        <v>78</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20">
+        <v>79</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21">
+        <f t="shared" ref="F21:F24" si="3">G21</f>
+        <v>91</v>
+      </c>
+      <c r="G21">
+        <v>91</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <f>G22</f>
+        <v>77</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22">
+        <v>77</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23">
+        <v>76</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>79</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <f>G25</f>
+        <v>75</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25">
+        <v>75</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26">
+        <v>94</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27">
+        <v>77</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" t="str">
+        <f t="shared" ref="H32:H38" si="4">IF(G32&gt;=85,"HD",IF(G32&gt;=75,"DN",IF(G32&gt;=65,"CR",IF(G32&gt;=50,"PS",""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="18" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="35">
+        <f>AVERAGE(C2:C38)</f>
+        <v>76</v>
+      </c>
+      <c r="D40" s="35">
+        <f>AVERAGE(D2:D38)</f>
+        <v>77.75</v>
+      </c>
+      <c r="E40" s="35">
+        <f>AVERAGE(E2:E38)</f>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="F40" s="35">
+        <f>AVERAGE(F2:F38)</f>
+        <v>85</v>
+      </c>
+      <c r="G40" s="35">
+        <f>AVERAGE(G2:G38)</f>
+        <v>77.15384615384616</v>
+      </c>
+      <c r="H40" s="34" t="str">
+        <f>IF(G40&gt;=85,"HD",IF(G40&gt;=75,"DN",IF(G40&gt;=65,"CR",IF(G40&gt;=50,"PS",""))))</f>
+        <v>DN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" hidden="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A40:B40"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:H36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="10" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="10" hidden="1"/>
+    <col min="12" max="16384" width="9.140625" style="10" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2560,11 +3623,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="60">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2586,9 +3649,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2608,9 +3671,9 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
@@ -2628,9 +3691,9 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2648,9 +3711,9 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21">
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="62">
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -2672,9 +3735,9 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
@@ -2694,9 +3757,9 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
@@ -2714,9 +3777,9 @@
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
@@ -2734,8 +3797,8 @@
       </c>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
       <c r="B10" s="16" t="s">
         <v>80</v>
       </c>
@@ -2758,11 +3821,11 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
         <v>2</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="63">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2782,9 +3845,9 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2804,9 +3867,9 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2816,9 +3879,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2828,9 +3891,9 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27">
+    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="63">
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2852,9 +3915,9 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2864,9 +3927,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2876,9 +3939,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2888,7 +3951,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
         <v>80</v>
@@ -2912,11 +3975,11 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="63">
         <v>3</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="63">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2938,9 +4001,9 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="7" t="s">
         <v>81</v>
       </c>
@@ -2952,9 +4015,9 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2964,9 +4027,9 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2976,9 +4039,9 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27">
+    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="63">
         <v>2</v>
       </c>
       <c r="C24" s="7"/>
@@ -2990,9 +4053,9 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+    <row r="25" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -3002,9 +4065,9 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
+    <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -3014,9 +4077,9 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+    <row r="27" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3026,7 +4089,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" s="8" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="7"/>
@@ -3038,11 +4101,11 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+    <row r="29" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="63">
         <v>4</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="63">
         <v>1</v>
       </c>
       <c r="C29" s="7"/>
@@ -3054,9 +4117,9 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -3066,9 +4129,9 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+    <row r="31" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -3078,9 +4141,9 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -3090,9 +4153,9 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27">
+    <row r="33" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="63">
         <v>2</v>
       </c>
       <c r="C33" s="7"/>
@@ -3104,9 +4167,9 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+    <row r="34" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -3116,9 +4179,9 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+    <row r="35" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -3128,9 +4191,9 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+    <row r="36" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -3140,7 +4203,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" s="8" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
@@ -3152,7 +4215,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
@@ -3164,7 +4227,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>40</v>
       </c>
@@ -3196,13 +4259,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="11">
         <f>192-SUM(E2:E38)</f>
         <v>108</v>
@@ -3228,19 +4291,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:10" ht="14.4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:10" ht="14.4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:10" ht="14.4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:10" ht="14.4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B23"/>
@@ -3248,13 +4305,19 @@
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C18"/>
@@ -3263,23 +4326,23 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3290,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3301,7 +4364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -3312,7 +4375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3323,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3334,7 +4397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3345,7 +4408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3356,7 +4419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3367,7 +4430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3378,7 +4441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3389,7 +4452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -3400,7 +4463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3411,7 +4474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3422,7 +4485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -3433,7 +4496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -3444,7 +4507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
